--- a/Shape_detection/Participants/2/alpha training_2.xlsx
+++ b/Shape_detection/Participants/2/alpha training_2.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Set 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Set 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Set 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,16 +471,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.118164539337158</v>
+        <v>2.520161151885986</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.054728031158447</v>
+        <v>1.593364000320435</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +513,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.662609577178955</v>
+        <v>1.495947360992432</v>
       </c>
     </row>
     <row r="5">
@@ -532,16 +534,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.175351858139038</v>
+        <v>2.837535858154297</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +564,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.772896766662598</v>
+        <v>1.715962648391724</v>
       </c>
     </row>
     <row r="7">
@@ -574,7 +576,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -583,7 +585,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.289969921112061</v>
+        <v>2.162045001983643</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +606,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.520362377166748</v>
+        <v>1.842690229415894</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +627,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.629177093505859</v>
+        <v>1.923356533050537</v>
       </c>
     </row>
     <row r="10">
@@ -637,16 +639,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.115936994552612</v>
+        <v>2.51579475402832</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +669,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.038894414901733</v>
+        <v>1.890655755996704</v>
       </c>
     </row>
     <row r="12">
@@ -679,16 +681,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>left</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.707521677017212</v>
+        <v>1.686017036437988</v>
       </c>
     </row>
     <row r="13">
@@ -700,16 +702,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.399917602539062</v>
+        <v>2.977755069732666</v>
       </c>
     </row>
     <row r="14">
@@ -730,7 +732,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.815553665161133</v>
+        <v>2.396710157394409</v>
       </c>
     </row>
     <row r="15">
@@ -742,16 +744,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.835493564605713</v>
+        <v>1.828487157821655</v>
       </c>
     </row>
     <row r="16">
@@ -763,16 +765,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.693214178085327</v>
+        <v>2.04931116104126</v>
       </c>
     </row>
     <row r="17">
@@ -784,16 +786,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.835526704788208</v>
+        <v>1.415831804275513</v>
       </c>
     </row>
     <row r="18">
@@ -805,16 +807,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.307232141494751</v>
+        <v>2.981123447418213</v>
       </c>
     </row>
     <row r="19">
@@ -826,16 +828,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.38386344909668</v>
+        <v>2.733273983001709</v>
       </c>
     </row>
     <row r="20">
@@ -847,16 +849,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.287093162536621</v>
+        <v>2.510438919067383</v>
       </c>
     </row>
     <row r="21">
@@ -868,16 +870,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>left</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.273606777191162</v>
+        <v>2.878521919250488</v>
       </c>
     </row>
     <row r="22">
@@ -889,16 +891,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.64528751373291</v>
+        <v>1.645709753036499</v>
       </c>
     </row>
     <row r="23">
@@ -915,11 +917,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.521690368652344</v>
+        <v>2.000097036361694</v>
       </c>
     </row>
     <row r="24">
@@ -931,16 +933,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.86689567565918</v>
+        <v>1.919020175933838</v>
       </c>
     </row>
     <row r="25">
@@ -957,11 +959,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.663780689239502</v>
+        <v>2.290066719055176</v>
       </c>
     </row>
     <row r="26">
@@ -973,7 +975,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -982,7 +984,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.554643869400024</v>
+        <v>1.790503740310669</v>
       </c>
     </row>
     <row r="27">
@@ -994,16 +996,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.665128469467163</v>
+        <v>2.955772399902344</v>
       </c>
     </row>
     <row r="28">
@@ -1024,7 +1026,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.720097780227661</v>
+        <v>2.310300588607788</v>
       </c>
     </row>
     <row r="29">
@@ -1036,16 +1038,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.628228664398193</v>
+        <v>1.672056674957275</v>
       </c>
     </row>
     <row r="30">
@@ -1057,16 +1059,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.783579111099243</v>
+        <v>2.424489974975586</v>
       </c>
     </row>
     <row r="31">
@@ -1078,7 +1080,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1087,7 +1089,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.363751411437988</v>
+        <v>2.008811235427856</v>
       </c>
     </row>
     <row r="32">
@@ -1099,16 +1101,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.287036180496216</v>
+        <v>1.904409170150757</v>
       </c>
     </row>
     <row r="33">
@@ -1129,7 +1131,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.394105434417725</v>
+        <v>2.49688982963562</v>
       </c>
     </row>
     <row r="34">
@@ -1141,16 +1143,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.444343566894531</v>
+        <v>3.700500726699829</v>
       </c>
     </row>
     <row r="35">
@@ -1162,16 +1164,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.458525419235229</v>
+        <v>2.345263719558716</v>
       </c>
     </row>
     <row r="36">
@@ -1183,16 +1185,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.302359104156494</v>
+        <v>3.337457656860352</v>
       </c>
     </row>
     <row r="37">
@@ -1204,16 +1206,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.393933534622192</v>
+        <v>2.350046396255493</v>
       </c>
     </row>
     <row r="38">
@@ -1234,7 +1236,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.414475440979004</v>
+        <v>1.791001319885254</v>
       </c>
     </row>
     <row r="39">
@@ -1246,16 +1248,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.524939298629761</v>
+        <v>1.859786987304688</v>
       </c>
     </row>
     <row r="40">
@@ -1276,7 +1278,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.45995306968689</v>
+        <v>1.573157072067261</v>
       </c>
     </row>
     <row r="41">
@@ -1288,16 +1290,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.381010293960571</v>
+        <v>1.60309100151062</v>
       </c>
     </row>
     <row r="42">
@@ -1309,16 +1311,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.455250024795532</v>
+        <v>2.187806129455566</v>
       </c>
     </row>
     <row r="43">
@@ -1339,7 +1341,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.629391193389893</v>
+        <v>2.002427339553833</v>
       </c>
     </row>
     <row r="44">
@@ -1351,16 +1353,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.627832174301147</v>
+        <v>1.751693248748779</v>
       </c>
     </row>
     <row r="45">
@@ -1372,16 +1374,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>left</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.442026615142822</v>
+        <v>2.549594640731812</v>
       </c>
     </row>
     <row r="46">
@@ -1393,16 +1395,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>top</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.787042617797852</v>
+        <v>1.803247690200806</v>
       </c>
     </row>
     <row r="47">
@@ -1414,16 +1416,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>right</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>right</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.346783399581909</v>
+        <v>2.086475133895874</v>
       </c>
     </row>
     <row r="48">
@@ -1444,7 +1446,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.193006277084351</v>
+        <v>2.771882057189941</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1467,2115 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.64672589302063</v>
+        <v>2.048301458358765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Direction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Direction</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Response Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4.231530666351318</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.850212097167969</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.552316665649414</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2.836781740188599</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1.818353176116943</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1.894892454147339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2.61724853515625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.649166107177734</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2.22516942024231</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1.45626974105835</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2.052202939987183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.756220817565918</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1.741608142852783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.632337093353271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.551970720291138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.21238112449646</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.078909397125244</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1.976748943328857</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1.939533948898315</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1.380144596099854</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.929250240325928</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.474340438842773</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1.535855054855347</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1.912553548812866</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.913097620010376</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.535578727722168</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1.678651809692383</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.504901170730591</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1.41046404838562</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.645574569702148</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1.411528348922729</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2.461450338363647</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1.784955978393555</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.398754358291626</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1.677821636199951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1.758090019226074</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1.629608154296875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2.540894269943237</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1.630770921707153</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1.474062919616699</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1.852002859115601</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1.330262184143066</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1.91238260269165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1.802527666091919</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.461100578308105</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.475250005722046</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.599775075912476</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>16</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.345646381378174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Direction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Direction</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Response Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.198508262634277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.944026231765747</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.630868673324585</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.224454641342163</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1.303505897521973</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1.507180690765381</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1.427202939987183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3.401333332061768</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1.722124576568604</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.556838750839233</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.568885326385498</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.630787372589111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1.394403219223022</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.836855173110962</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.77495813369751</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3.057564973831177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.819802284240723</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2.275773763656616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1.423840284347534</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1.004372358322144</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.959201812744141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.252962589263916</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1.522219896316528</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1.409152507781982</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.395267009735107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.302349805831909</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1.207850456237793</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.117999315261841</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1.426866769790649</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.283257007598877</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1.192033529281616</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1.47290563583374</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3.794167041778564</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1.705710649490356</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2.115865707397461</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1.881601572036743</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1.332887411117554</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1.504577159881592</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1.631312370300293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1.708268642425537</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1.774787664413452</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1.411151647567749</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1.695400476455688</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2.081874847412109</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.832097768783569</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.927667856216431</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.568263053894043</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>16</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.504262685775757</v>
       </c>
     </row>
   </sheetData>
